--- a/data/extracted_data/const1/const1-trial1-tdoa2-results-corrected-random-describe.xlsx
+++ b/data/extracted_data/const1/const1-trial1-tdoa2-results-corrected-random-describe.xlsx
@@ -585,34 +585,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.844182404645111</v>
+        <v>25.45357821289218</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01514845025149102</v>
+        <v>0.03684419093923683</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0008899379695430765</v>
+        <v>-0.03737209867738679</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01055788250112853</v>
+        <v>2.085398412980014</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001798723107412822</v>
+        <v>0.02270940308570578</v>
       </c>
       <c r="G3" t="n">
-        <v>0.290602019974137</v>
+        <v>0.2785370905762428</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1199301703438843</v>
+        <v>0.1184367890942406</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.01486914089314512</v>
+        <v>-0.01378851180115016</v>
       </c>
       <c r="J3" t="n">
-        <v>1.760875681118812</v>
+        <v>1.761268217563375</v>
       </c>
       <c r="K3" t="n">
-        <v>0.003205759646913692</v>
+        <v>0.003186213431645842</v>
       </c>
       <c r="L3" t="n">
         <v>3.500833283733111</v>
@@ -643,34 +643,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.990699183158126</v>
+        <v>22.20697324054853</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06227264498064287</v>
+        <v>2.443838639291755</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03582810998914475</v>
+        <v>2.241197824332093</v>
       </c>
       <c r="E4" t="n">
-        <v>0.04206710309673915</v>
+        <v>1.326137928881284</v>
       </c>
       <c r="F4" t="n">
-        <v>0.006719573992622892</v>
+        <v>0.01016523090942171</v>
       </c>
       <c r="G4" t="n">
-        <v>3.629142872324367</v>
+        <v>3.546975588619937</v>
       </c>
       <c r="H4" t="n">
-        <v>1.02060374553336</v>
+        <v>1.020252197523635</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9249891608128424</v>
+        <v>0.918040398748541</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5097201010011563</v>
+        <v>0.5025527184509144</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0009183977965036546</v>
+        <v>0.001040599736502429</v>
       </c>
       <c r="L4" t="n">
         <v>2.293725816668107</v>
@@ -701,34 +701,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02191807698119705</v>
+        <v>0.0002081755083601137</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.2468879091155165</v>
+        <v>-6.202112681924335</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2756379258056898</v>
+        <v>-6.304382813689466</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.0002902408880893012</v>
+        <v>-2.30288445282293</v>
       </c>
       <c r="F5" t="n">
         <v>2.6702880859375e-05</v>
       </c>
       <c r="G5" t="n">
-        <v>3.419272490942829e-17</v>
+        <v>1.628093162582314e-17</v>
       </c>
       <c r="H5" t="n">
-        <v>-5</v>
+        <v>-4.999999999999995</v>
       </c>
       <c r="I5" t="n">
-        <v>-4.999999999999808</v>
+        <v>-4.999999999999979</v>
       </c>
       <c r="J5" t="n">
-        <v>5.290808920614941e-16</v>
+        <v>4.243043092830921e-16</v>
       </c>
       <c r="K5" t="n">
-        <v>0.001593112945556641</v>
+        <v>0.001556873321533203</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -759,34 +759,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.431954241067156</v>
+        <v>8.035699681967468</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0003706267803542913</v>
+        <v>-1.728044377617068</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.0006262613535741136</v>
+        <v>-1.658683675774883</v>
       </c>
       <c r="E6" t="n">
-        <v>5.925969794538974e-05</v>
+        <v>1.003254123260684</v>
       </c>
       <c r="F6" t="n">
-        <v>2.908706665039062e-05</v>
+        <v>0.02464216947555542</v>
       </c>
       <c r="G6" t="n">
-        <v>3.040864038082605e-14</v>
+        <v>3.030913025509158e-14</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.8241794421227095</v>
+        <v>-0.8242578588929201</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.8162146301588709</v>
+        <v>-0.8151954591036406</v>
       </c>
       <c r="J6" t="n">
-        <v>1.654046736667545</v>
+        <v>1.654889653821271</v>
       </c>
       <c r="K6" t="n">
-        <v>0.002657175064086914</v>
+        <v>0.002627849578857422</v>
       </c>
       <c r="L6" t="n">
         <v>1</v>
@@ -817,34 +817,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.006360296005301</v>
+        <v>19.90545724003675</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0002261873901755504</v>
+        <v>0.1224069916349789</v>
       </c>
       <c r="D7" t="n">
-        <v>-5.059859145734483e-05</v>
+        <v>-0.05808660744555592</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0002435969796860628</v>
+        <v>2.098625480535457</v>
       </c>
       <c r="F7" t="n">
-        <v>3.004074096679688e-05</v>
+        <v>0.0274808406829834</v>
       </c>
       <c r="G7" t="n">
-        <v>6.178590644142543e-14</v>
+        <v>6.141069077540899e-14</v>
       </c>
       <c r="H7" t="n">
-        <v>0.219016680385597</v>
+        <v>0.2186923384580594</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.006519209423216319</v>
+        <v>-0.005944334586312924</v>
       </c>
       <c r="J7" t="n">
-        <v>1.785194457688213</v>
+        <v>1.785667907965378</v>
       </c>
       <c r="K7" t="n">
-        <v>0.002961874008178711</v>
+        <v>0.002927899360656738</v>
       </c>
       <c r="L7" t="n">
         <v>4</v>
@@ -875,34 +875,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.817154078776715</v>
+        <v>37.04331610673456</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0006500303753787511</v>
+        <v>1.811833086701883</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0005163565860442763</v>
+        <v>1.509992987135551</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0003745860135176499</v>
+        <v>3.18810276559208</v>
       </c>
       <c r="F8" t="n">
-        <v>3.290176391601562e-05</v>
+        <v>0.02775192260742188</v>
       </c>
       <c r="G8" t="n">
-        <v>1.360064343368223e-13</v>
+        <v>1.358009223162211e-13</v>
       </c>
       <c r="H8" t="n">
-        <v>1.086440187028677</v>
+        <v>1.086441554939402</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7909355478968706</v>
+        <v>0.7916860420717451</v>
       </c>
       <c r="J8" t="n">
-        <v>1.949544752211071</v>
+        <v>1.949639721507523</v>
       </c>
       <c r="K8" t="n">
-        <v>0.00341796875</v>
+        <v>0.003375053405761719</v>
       </c>
       <c r="L8" t="n">
         <v>6</v>
@@ -933,34 +933,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16.14271161906791</v>
+        <v>182.1725028459352</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4506462110122765</v>
+        <v>6.076202400708286</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4641575628665753</v>
+        <v>5.888694261662529</v>
       </c>
       <c r="E9" t="n">
-        <v>0.301365876765087</v>
+        <v>5.812980318828838</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04056692123413086</v>
+        <v>0.1928379535675049</v>
       </c>
       <c r="G9" t="n">
-        <v>132.4541704356456</v>
+        <v>170.8208742664261</v>
       </c>
       <c r="H9" t="n">
-        <v>4.999999999999962</v>
+        <v>4.999999999997427</v>
       </c>
       <c r="I9" t="n">
-        <v>4.999999999992916</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
         <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>0.02078986167907715</v>
+        <v>0.05438899993896484</v>
       </c>
       <c r="L9" t="n">
         <v>7</v>
